--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00009486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чанах "Умалат", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010095</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,16 +138,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -199,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,19 +209,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,16 +238,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,21 +267,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -292,7 +286,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -307,22 +301,19 @@
       <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K2" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -330,7 +321,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -342,25 +333,22 @@
       <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.2</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -368,7 +356,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -380,25 +368,22 @@
       <c r="E4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.2</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -406,7 +391,7 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -418,25 +403,22 @@
       <c r="E5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1.4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -444,7 +426,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -456,26 +438,58 @@
       <c r="E6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.2</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="I7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>23</v>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t xml:space="preserve">Kод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Налив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Схватка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Посолка</t>
   </si>
   <si>
     <t xml:space="preserve">Брынза классическая "Умалат", 45%, 0,2 кг, т/ф</t>
@@ -107,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,12 +159,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +223,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,10 +243,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,25 +286,40 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -311,10 +331,25 @@
         <v>6</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,19 +357,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
@@ -346,10 +381,25 @@
         <v>6</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,19 +407,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
@@ -381,10 +431,25 @@
         <v>6</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,19 +457,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0</v>
@@ -416,10 +481,25 @@
         <v>6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,19 +507,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
@@ -451,10 +531,25 @@
         <v>6</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
@@ -486,10 +581,25 @@
         <v>6</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,12 +143,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +208,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,7 +231,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,7 +301,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>13</v>
@@ -346,7 +336,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>16</v>
@@ -381,7 +371,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>19</v>
@@ -416,7 +406,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>21</v>
@@ -451,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -467,7 +457,7 @@
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
@@ -486,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>25</v>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">Посолка</t>
   </si>
   <si>
+    <t xml:space="preserve">Выход</t>
+  </si>
+  <si>
     <t xml:space="preserve">Брынза классическая "Умалат", 45%, 0,2 кг, т/ф</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Чанах "Умалат", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чанах</t>
   </si>
   <si>
     <t xml:space="preserve">00-00010095</t>
@@ -243,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,25 +307,28 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -334,7 +343,7 @@
         <v>350</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>40</v>
@@ -350,6 +359,9 @@
       </c>
       <c r="P2" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,19 +369,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
@@ -384,7 +396,7 @@
         <v>350</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>40</v>
@@ -400,6 +412,9 @@
       </c>
       <c r="P3" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,19 +422,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
@@ -434,7 +449,7 @@
         <v>350</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>40</v>
@@ -450,6 +465,9 @@
       </c>
       <c r="P4" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,19 +475,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0</v>
@@ -484,7 +502,7 @@
         <v>350</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>40</v>
@@ -500,6 +518,9 @@
       </c>
       <c r="P5" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,19 +528,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
@@ -534,7 +555,7 @@
         <v>350</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>40</v>
@@ -550,6 +571,9 @@
       </c>
       <c r="P6" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,19 +581,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
@@ -584,7 +608,7 @@
         <v>350</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>40</v>
@@ -600,6 +624,9 @@
       </c>
       <c r="P7" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">00-00010095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брынза классическая "Из Лавки", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из Лавки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012173</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,6 +152,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +223,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,10 +251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,6 +505,41 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -251,8 +251,8 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +626,7 @@
         <v>50</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Халуми для жарки «kλαssikós», 45%, 0,3 кг, к/к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Халуми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kλαssikós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брынза болгарская "Велика Брънза", 45%, 0,8 кг, ж/б</t>
   </si>
 </sst>
 </file>
@@ -224,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,6 +260,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,6 +714,112 @@
         <v>450</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/app/data/static/params/brynza.xlsx
+++ b/app/data/static/params/brynza.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">Брынза болгарская "Велика Брънза", 45%, 0,8 кг, ж/б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брынза классическая "Умалат", 45%, 1,4 кг, в/у (резаная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012968</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,6 +194,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,6 +276,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -820,6 +836,59 @@
         <v>450</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
